--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -19,16 +19,39 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">FECHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Weimann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joselo Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horacio Cabak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo Nuñez</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,8 +111,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -110,14 +141,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.92"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>44046</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>44047</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>44048</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
